--- a/data/PCAWG_test/tableProjects.xlsx
+++ b/data/PCAWG_test/tableProjects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marki-NTB\Documents\GitHub\Dr.NOD\data\PCAWG_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE4323-C7AE-43FF-8743-9A5C93D518D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F998197-8872-4539-A685-112847DD1B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>PROJECT_SAVE_NAME</t>
   </si>
@@ -117,13 +117,22 @@
   </si>
   <si>
     <t>bloodLymphoid</t>
+  </si>
+  <si>
+    <t>PCAWG_PBCA_DE</t>
+  </si>
+  <si>
+    <t>PBCA-DE</t>
+  </si>
+  <si>
+    <t>brain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -190,10 +199,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CE822EA-74B5-4BE6-B8D1-BAEB874A14E7}" name="Tabulka2" displayName="Tabulka2" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{2CE822EA-74B5-4BE6-B8D1-BAEB874A14E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
-    <sortCondition ref="E1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CE822EA-74B5-4BE6-B8D1-BAEB874A14E7}" name="Tabulka2" displayName="Tabulka2" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{2CE822EA-74B5-4BE6-B8D1-BAEB874A14E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+    <sortCondition ref="E1:E11"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3F38558E-1935-4E10-90AC-D710F1E6FD37}" name="PROJECT_SAVE_NAME"/>
@@ -207,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -247,7 +256,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -353,7 +362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -495,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,20 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C498844B-9CC1-4D6D-9865-7E6E91CED1D9}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -550,7 +559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -567,29 +576,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -601,12 +610,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -618,29 +627,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -652,12 +661,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -669,20 +678,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
